--- a/Assets/StreamingAssets/Data/command_set.xlsx
+++ b/Assets/StreamingAssets/Data/command_set.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work-Hexmap\hexmap-democlient\Assets\StreamingAssets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A1487DE-CC1A-459F-8D76-54483A6F4D41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D68BEAA2-EE2F-4D38-B89B-90F2562E4E56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -116,23 +116,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3010|5001|5002|1001|</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3010|5001|5002|5003|</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3010|5001|5002|5003|5004|</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3010|5001|5002|5003|5005|</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3010|5001|3001|3002|3003|3004|3005|</t>
+    <t>3010|5001|5006|3001|3002|3003|3004|3005|</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3010|5001|5002|5006|1001|</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3010|5001|5002|5003|5006|</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3010|5001|5002|5003|5004|5006|</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3010|5001|5002|5003|5005|5006|</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -461,7 +461,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -585,7 +585,7 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -596,7 +596,7 @@
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -607,7 +607,7 @@
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -618,7 +618,7 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -629,7 +629,7 @@
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -640,11 +640,12 @@
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>